--- a/data/hotels_by_city/Houston/Houston_shard_20.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_20.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="64">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,9 @@
     <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d674665-r296134162-Baymont_by_Wyndham_Baytown-Baytown_Texas.html</t>
   </si>
   <si>
+    <t>142</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Baymont-By-Wyndham-Baytown.h1723235.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +142,72 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/06/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d674665-r279388174-Baymont_by_Wyndham_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>55456</t>
+  </si>
+  <si>
+    <t>674665</t>
+  </si>
+  <si>
+    <t>279388174</t>
+  </si>
+  <si>
+    <t>06/10/2015</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d674665-r279322346-Baymont_by_Wyndham_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>279322346</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d674665-r275359546-Baymont_by_Wyndham_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>275359546</t>
+  </si>
+  <si>
+    <t>05/28/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Awesome </t>
+  </si>
+  <si>
+    <t>The staff become like family.Ur furry friends are very welcome.Some Smoking rms are a plus for us.Staff are caring an helpful.Please look at staying here...but book ahead.Breakfast is always good.Pool an jucuzzi are outside an very clean...Bbqs to use.Truck parking kinda...just ask the front desk.Prices are reasonably.</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d674665-r274987094-Baymont_by_Wyndham_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>274987094</t>
+  </si>
+  <si>
+    <t>05/27/2015</t>
+  </si>
+  <si>
+    <t>Paniagua Stay</t>
+  </si>
+  <si>
+    <t>Staff was really nice and helpful, very clean room, Hotel smelled great. I would stay there again any day.</t>
   </si>
 </sst>
 </file>
@@ -532,11 +601,13 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
       <c r="H2" t="s"/>
       <c r="I2" t="s"/>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +629,325 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>56390</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K2" t="s"/>
+      <c r="L2" t="s"/>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>48</v>
+      </c>
+      <c r="O2" t="s">
+        <v>49</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>4</v>
+      </c>
+      <c r="R2" t="n">
+        <v>5</v>
+      </c>
+      <c r="S2" t="n">
+        <v>4</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>56390</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K3" t="s"/>
+      <c r="L3" t="s"/>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>56390</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" t="s">
+        <v>54</v>
+      </c>
+      <c r="J4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K4" t="s">
+        <v>56</v>
+      </c>
+      <c r="L4" t="s">
+        <v>57</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>58</v>
+      </c>
+      <c r="O4" t="s">
+        <v>52</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>56390</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" t="s">
+        <v>60</v>
+      </c>
+      <c r="J5" t="s">
+        <v>61</v>
+      </c>
+      <c r="K5" t="s">
+        <v>62</v>
+      </c>
+      <c r="L5" t="s">
+        <v>63</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>58</v>
+      </c>
+      <c r="O5" t="s">
+        <v>52</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" t="n">
+        <v>3</v>
+      </c>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_20.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_20.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -142,72 +142,6 @@
   </si>
   <si>
     <t>response_text</t>
-  </si>
-  <si>
-    <t>08/06/2018</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d674665-r279388174-Baymont_by_Wyndham_Baytown-Baytown_Texas.html</t>
-  </si>
-  <si>
-    <t>55456</t>
-  </si>
-  <si>
-    <t>674665</t>
-  </si>
-  <si>
-    <t>279388174</t>
-  </si>
-  <si>
-    <t>06/10/2015</t>
-  </si>
-  <si>
-    <t>June 2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d674665-r279322346-Baymont_by_Wyndham_Baytown-Baytown_Texas.html</t>
-  </si>
-  <si>
-    <t>279322346</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d674665-r275359546-Baymont_by_Wyndham_Baytown-Baytown_Texas.html</t>
-  </si>
-  <si>
-    <t>275359546</t>
-  </si>
-  <si>
-    <t>05/28/2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Awesome </t>
-  </si>
-  <si>
-    <t>The staff become like family.Ur furry friends are very welcome.Some Smoking rms are a plus for us.Staff are caring an helpful.Please look at staying here...but book ahead.Breakfast is always good.Pool an jucuzzi are outside an very clean...Bbqs to use.Truck parking kinda...just ask the front desk.Prices are reasonably.</t>
-  </si>
-  <si>
-    <t>May 2015</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d674665-r274987094-Baymont_by_Wyndham_Baytown-Baytown_Texas.html</t>
-  </si>
-  <si>
-    <t>274987094</t>
-  </si>
-  <si>
-    <t>05/27/2015</t>
-  </si>
-  <si>
-    <t>Paniagua Stay</t>
-  </si>
-  <si>
-    <t>Staff was really nice and helpful, very clean room, Hotel smelled great. I would stay there again any day.</t>
   </si>
 </sst>
 </file>
@@ -704,252 +638,6 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>56390</v>
-      </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I2" t="s">
-        <v>46</v>
-      </c>
-      <c r="J2" t="s">
-        <v>47</v>
-      </c>
-      <c r="K2" t="s"/>
-      <c r="L2" t="s"/>
-      <c r="M2" t="n">
-        <v>4</v>
-      </c>
-      <c r="N2" t="s">
-        <v>48</v>
-      </c>
-      <c r="O2" t="s">
-        <v>49</v>
-      </c>
-      <c r="P2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>4</v>
-      </c>
-      <c r="R2" t="n">
-        <v>5</v>
-      </c>
-      <c r="S2" t="n">
-        <v>4</v>
-      </c>
-      <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>5</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="s"/>
-      <c r="X2" t="s"/>
-      <c r="Y2" t="s"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>56390</v>
-      </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
-      <c r="D3" t="n">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I3" t="s">
-        <v>51</v>
-      </c>
-      <c r="J3" t="s">
-        <v>47</v>
-      </c>
-      <c r="K3" t="s"/>
-      <c r="L3" t="s"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="s">
-        <v>48</v>
-      </c>
-      <c r="O3" t="s">
-        <v>52</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1</v>
-      </c>
-      <c r="T3" t="s"/>
-      <c r="U3" t="n">
-        <v>1</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="s"/>
-      <c r="X3" t="s"/>
-      <c r="Y3" t="s"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>56390</v>
-      </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
-      <c r="D4" t="n">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H4" t="s">
-        <v>45</v>
-      </c>
-      <c r="I4" t="s">
-        <v>54</v>
-      </c>
-      <c r="J4" t="s">
-        <v>55</v>
-      </c>
-      <c r="K4" t="s">
-        <v>56</v>
-      </c>
-      <c r="L4" t="s">
-        <v>57</v>
-      </c>
-      <c r="M4" t="n">
-        <v>5</v>
-      </c>
-      <c r="N4" t="s">
-        <v>58</v>
-      </c>
-      <c r="O4" t="s">
-        <v>52</v>
-      </c>
-      <c r="P4" t="s"/>
-      <c r="Q4" t="s"/>
-      <c r="R4" t="s"/>
-      <c r="S4" t="s"/>
-      <c r="T4" t="s"/>
-      <c r="U4" t="s"/>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="s"/>
-      <c r="X4" t="s"/>
-      <c r="Y4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>56390</v>
-      </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
-      <c r="D5" t="n">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H5" t="s">
-        <v>45</v>
-      </c>
-      <c r="I5" t="s">
-        <v>60</v>
-      </c>
-      <c r="J5" t="s">
-        <v>61</v>
-      </c>
-      <c r="K5" t="s">
-        <v>62</v>
-      </c>
-      <c r="L5" t="s">
-        <v>63</v>
-      </c>
-      <c r="M5" t="n">
-        <v>5</v>
-      </c>
-      <c r="N5" t="s">
-        <v>58</v>
-      </c>
-      <c r="O5" t="s">
-        <v>52</v>
-      </c>
-      <c r="P5" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>5</v>
-      </c>
-      <c r="R5" t="n">
-        <v>3</v>
-      </c>
-      <c r="S5" t="n">
-        <v>5</v>
-      </c>
-      <c r="T5" t="s"/>
-      <c r="U5" t="n">
-        <v>5</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="s"/>
-      <c r="X5" t="s"/>
-      <c r="Y5" t="s">
-        <v>63</v>
-      </c>
-    </row>
   </sheetData>
 </worksheet>
 </file>